--- a/traveller/checklist.xlsx
+++ b/traveller/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traveller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B49C3E-6218-E746-8F68-1749656E5C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4780D0BC-76AA-D94D-98FA-BD76540916F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{283D1F88-BF43-F642-9C81-11F4F7645579}"/>
   </bookViews>

--- a/traveller/checklist.xlsx
+++ b/traveller/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traveller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4780D0BC-76AA-D94D-98FA-BD76540916F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB7FE8-A479-3549-8D9E-D8533F960215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{283D1F88-BF43-F642-9C81-11F4F7645579}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>year</t>
   </si>
@@ -177,6 +177,51 @@
   </si>
   <si>
     <t>japanese</t>
+  </si>
+  <si>
+    <t>megatraveller.jpg</t>
+  </si>
+  <si>
+    <t>traveller_handbook.jpg</t>
+  </si>
+  <si>
+    <t>メガトラベラー</t>
+  </si>
+  <si>
+    <t>MegaTraveller</t>
+  </si>
+  <si>
+    <t>Traveller Handbook</t>
+  </si>
+  <si>
+    <t>Rebellion Sourcebook</t>
+  </si>
+  <si>
+    <t>rebellion.jpg</t>
+  </si>
+  <si>
+    <t>Knightfall</t>
+  </si>
+  <si>
+    <t>knight_fall.jpg</t>
+  </si>
+  <si>
+    <t>Hard Times</t>
+  </si>
+  <si>
+    <t>hard_times.jpg</t>
+  </si>
+  <si>
+    <t>トラベラーハンドブック</t>
+  </si>
+  <si>
+    <t>反乱軍ソースブック</t>
+  </si>
+  <si>
+    <t>ナイトフォール</t>
+  </si>
+  <si>
+    <t>ハードタイムズ</t>
   </si>
 </sst>
 </file>
@@ -537,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A31BF-8C55-3F41-8E78-B60253042F12}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,6 +812,76 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/traveller/checklist.xlsx
+++ b/traveller/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traveller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB7FE8-A479-3549-8D9E-D8533F960215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEBE12B-8F36-324D-BBE1-99C0B72CB507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{283D1F88-BF43-F642-9C81-11F4F7645579}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>year</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>ハードタイムズ</t>
+  </si>
+  <si>
+    <t>MegaTraveller Imperial Encyclopedia</t>
+  </si>
+  <si>
+    <t>megatraveller_imperial_encyclopedia.jpg</t>
+  </si>
+  <si>
+    <t>メガトラベラー帝国百科</t>
   </si>
 </sst>
 </file>
@@ -582,16 +591,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A31BF-8C55-3F41-8E78-B60253042F12}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
   </cols>
@@ -882,6 +891,20 @@
         <v>58</v>
       </c>
     </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/traveller/checklist.xlsx
+++ b/traveller/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traveller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEBE12B-8F36-324D-BBE1-99C0B72CB507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782AD9B8-8800-CF42-B956-7E7325CAA0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{283D1F88-BF43-F642-9C81-11F4F7645579}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>year</t>
   </si>
@@ -224,13 +224,19 @@
     <t>ハードタイムズ</t>
   </si>
   <si>
-    <t>MegaTraveller Imperial Encyclopedia</t>
-  </si>
-  <si>
-    <t>megatraveller_imperial_encyclopedia.jpg</t>
-  </si>
-  <si>
-    <t>メガトラベラー帝国百科</t>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>box set</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>rulebook</t>
   </si>
 </sst>
 </file>
@@ -591,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A31BF-8C55-3F41-8E78-B60253042F12}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,7 +611,7 @@
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +627,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1984</v>
       </c>
@@ -638,8 +647,14 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1984</v>
+      </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -652,8 +667,14 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1985</v>
+      </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -666,8 +687,14 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1985</v>
+      </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -680,8 +707,14 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1987</v>
+      </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -694,8 +727,14 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1986</v>
+      </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -708,8 +747,14 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1988</v>
+      </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -722,8 +767,14 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1988</v>
+      </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -736,8 +787,14 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1989</v>
+      </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -750,8 +807,11 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -764,8 +824,11 @@
       <c r="E11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -778,8 +841,14 @@
       <c r="E12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1985</v>
+      </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -792,8 +861,11 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -806,8 +878,11 @@
       <c r="E14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -820,36 +895,51 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1987</v>
+      </c>
       <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1991</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -862,8 +952,11 @@
       <c r="E18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>61</v>
       </c>
@@ -876,8 +969,11 @@
       <c r="E19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>62</v>
       </c>
@@ -890,19 +986,8 @@
       <c r="E20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
+      <c r="F20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/traveller/checklist.xlsx
+++ b/traveller/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traveller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782AD9B8-8800-CF42-B956-7E7325CAA0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC19039-14D0-6345-8DC0-AEEA2C8CF35D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{283D1F88-BF43-F642-9C81-11F4F7645579}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,6 +829,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1985</v>
+      </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -866,6 +869,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1987</v>
+      </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>

--- a/traveller/checklist.xlsx
+++ b/traveller/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traveller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC19039-14D0-6345-8DC0-AEEA2C8CF35D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A56ED2-D611-0947-83EA-DF843F9BC397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{283D1F88-BF43-F642-9C81-11F4F7645579}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13440" windowHeight="16340" xr2:uid="{283D1F88-BF43-F642-9C81-11F4F7645579}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>year</t>
   </si>
@@ -237,6 +237,51 @@
   </si>
   <si>
     <t>rulebook</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>G-251</t>
+  </si>
+  <si>
+    <t>G-2511</t>
+  </si>
+  <si>
+    <t>G-2512</t>
+  </si>
+  <si>
+    <t>G-2513</t>
+  </si>
+  <si>
+    <t>G-2514</t>
+  </si>
+  <si>
+    <t>G-2515</t>
+  </si>
+  <si>
+    <t>G-2516</t>
+  </si>
+  <si>
+    <t>G-2517</t>
+  </si>
+  <si>
+    <t>G-2518</t>
+  </si>
+  <si>
+    <t>G-F01</t>
+  </si>
+  <si>
+    <t>G-802</t>
+  </si>
+  <si>
+    <t>G-601</t>
+  </si>
+  <si>
+    <t>G-818</t>
+  </si>
+  <si>
+    <t>G-822</t>
   </si>
 </sst>
 </file>
@@ -597,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A31BF-8C55-3F41-8E78-B60253042F12}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,7 +656,7 @@
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +675,11 @@
       <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1984</v>
       </c>
@@ -650,8 +698,11 @@
       <c r="F2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1984</v>
       </c>
@@ -670,8 +721,11 @@
       <c r="F3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1985</v>
       </c>
@@ -690,8 +744,11 @@
       <c r="F4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1985</v>
       </c>
@@ -710,8 +767,11 @@
       <c r="F5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1987</v>
       </c>
@@ -730,8 +790,11 @@
       <c r="F6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1986</v>
       </c>
@@ -750,8 +813,11 @@
       <c r="F7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1988</v>
       </c>
@@ -770,8 +836,11 @@
       <c r="F8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1988</v>
       </c>
@@ -790,8 +859,11 @@
       <c r="F9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1989</v>
       </c>
@@ -810,8 +882,11 @@
       <c r="F10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -827,8 +902,11 @@
       <c r="F11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1985</v>
       </c>
@@ -847,8 +925,11 @@
       <c r="F12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1985</v>
       </c>
@@ -867,8 +948,11 @@
       <c r="F13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1987</v>
       </c>
@@ -887,8 +971,11 @@
       <c r="F14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -904,8 +991,11 @@
       <c r="F15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1987</v>
       </c>

--- a/traveller/checklist.xlsx
+++ b/traveller/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/traveller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/traveller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A56ED2-D611-0947-83EA-DF843F9BC397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2971091E-3ACB-D342-8429-DCAEF9EB9B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13440" windowHeight="16340" xr2:uid="{283D1F88-BF43-F642-9C81-11F4F7645579}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="13440" windowHeight="16340" xr2:uid="{283D1F88-BF43-F642-9C81-11F4F7645579}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A31BF-8C55-3F41-8E78-B60253042F12}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,6 +1036,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1991</v>
+      </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -1053,6 +1056,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1992</v>
+      </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
